--- a/biology/Zoologie/Cithaeron/Cithaeron.xlsx
+++ b/biology/Zoologie/Cithaeron/Cithaeron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cithaeron est un genre d'araignées aranéomorphes de la famille des Cithaeronidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cithaeron est un genre d'araignées aranéomorphes de la famille des Cithaeronidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Asie et en Europe du Sud[1].
-Des espèces ont été introduites en Amérique et en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Asie et en Europe du Sud.
+Des espèces ont été introduites en Amérique et en Australie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 11/04/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 11/04/2022) :
 Cithaeron contentum Jocqué &amp; Russell-Smith, 2011
 Cithaeron delimbatus Strand, 1906
 Cithaeron dippenaarae Bosmans &amp; Van Keer, 2015
@@ -580,10 +596,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par O. Pickard-Cambridge en 1872 dans les Agelenidae. Il est placé dans les Drassidae par Simon en 1893[3], dans les Zodariidae par Petrunkevitch en 1928[4] puis dans les Cithaeronidae par Caporiacco en 1938[5].
-Tephlea[6] a été placé en synonymie par Simon en 1893[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par O. Pickard-Cambridge en 1872 dans les Agelenidae. Il est placé dans les Drassidae par Simon en 1893, dans les Zodariidae par Petrunkevitch en 1928 puis dans les Cithaeronidae par Caporiacco en 1938.
+Tephlea a été placé en synonymie par Simon en 1893.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1872 : « General list of the spiders of Palestine and Syria, with descriptions of numerous new species, and characters of two new genera. » Proceedings of the Zoological Society of London, vol. 1872, p. 212-354 (texte intégral).</t>
         </is>
